--- a/2022-2023 PCBs Work in Progress/deployment/DEP_REVC/DEP_REVC_BOM.xlsx
+++ b/2022-2023 PCBs Work in Progress/deployment/DEP_REVC/DEP_REVC_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\Documents\CU InSpace\avionics-hardware\2022-2023 PCBs Work in Progress\deployment\DEP_REVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43FE76FA-BFF4-410C-96CB-53B47AD57A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD789427-0209-4348-AD90-117861BE145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AA7BF814-9B2D-4B2F-8E84-2E25EAB2C408}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Component</t>
   </si>
@@ -68,21 +68,9 @@
     <t>1k Resistor</t>
   </si>
   <si>
-    <t>RC0402JR-071KL</t>
-  </si>
-  <si>
-    <t>311-1.0KJRCT-ND</t>
-  </si>
-  <si>
     <t>330 Resistor</t>
   </si>
   <si>
-    <t>WR04X331 JTL</t>
-  </si>
-  <si>
-    <t>1292-WR04X331JTLCT-ND</t>
-  </si>
-  <si>
     <t>AQY282EHA</t>
   </si>
   <si>
@@ -92,9 +80,6 @@
     <t>DigiKey Product #</t>
   </si>
   <si>
-    <t># of Parts</t>
-  </si>
-  <si>
     <t>LM317 Voltage Regulator</t>
   </si>
   <si>
@@ -113,15 +98,6 @@
     <t>A121179CT-ND</t>
   </si>
   <si>
-    <t>2.0 Resistor, 2W</t>
-  </si>
-  <si>
-    <t>CRM2512-JW-2R0ELF</t>
-  </si>
-  <si>
-    <t>118-CRM2512-JW-2R0ELFCT-ND</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -131,19 +107,37 @@
     <t>https://www.digikey.ca/en/products/detail/taiwan-semiconductor-corporation/TSM085P03CS-RLG/7360104?s=N4IgTCBcDaICoGUCyAGAHAVgAooMwGEEAlAGQHF84BaAOQBEQBdAXyA</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RC0402JR-071KL/726408?s=N4IgTCBcDaIMwEYEFoEDoAMBpAUgJQGEAVZAOQBEQBdAXyA</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/walsin-technology-corporation/WR04X331-JTL/13240790?s=N4IgTCBcDaIIxgJxgLQHUBKAGALADQGYC4ApAFQBkBhMlAOQBEQBdAXyA</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/onsemi/LM317BD2TR4G/918498?s=N4IgTCBcDaIDIFkDMBGA7AIQCJgCoCUAWAcQHkBlAYVwFoA5LEAXQF8g</t>
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/te-connectivity-passive-product/35221R5JT/5245030?s=N4IgTCBcDaIIIEYwIQdgJwGEAqBaAcgCIgC6AvkA</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/bourns-inc/CRM2512-JW-2R0ELF/4698432?s=N4IgTCBcDaIIxwBwFoDCAlAsmArHMyAUgOrJjoAMAogDIBiqAKsgHIAiIAugL5A</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>RC0805JR-07330RL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0805JR-07330RL/728311</t>
+  </si>
+  <si>
+    <t>311-330ARCT-ND</t>
+  </si>
+  <si>
+    <t>RNCP0805FTD1K00</t>
+  </si>
+  <si>
+    <t>RNCP0805FTD1K00CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
   </si>
 </sst>
 </file>
@@ -204,12 +198,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -218,11 +213,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -235,10 +232,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,7 +534,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -575,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -583,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>2.62</v>
@@ -599,7 +592,7 @@
         <v>5.24</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -623,7 +616,7 @@
         <v>6.3</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -631,10 +624,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
         <v>0.16</v>
@@ -647,18 +640,18 @@
         <v>0.32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4">
         <v>0.16</v>
@@ -671,18 +664,18 @@
         <v>0.32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>1.5</v>
@@ -695,56 +688,37 @@
         <v>3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>0.99</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.99</v>
+        <v>1.98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.79</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
@@ -762,16 +736,21 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" s="4"/>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F2:F10)</f>
+        <v>17.16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="4"/>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.13</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -780,15 +759,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <f>SUM(E2:E12)</f>
+        <f>SUM(E2:E10)</f>
         <v>12</v>
       </c>
-      <c r="F13" s="1">
-        <f>SUM(F2:F12)</f>
-        <v>16.959999999999997</v>
+      <c r="F13" s="2">
+        <f>F11*(1+F12)</f>
+        <v>19.390799999999999</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -917,13 +896,10 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{D7AB6ECE-1BD2-4090-A739-4908E3B0E683}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{67C917CF-561F-43B3-B684-70E5164EB36C}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{E5588BF7-7C8E-473D-B00A-DE8E30BCC260}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{7CF453E5-F8A1-4324-A78F-AAE0C80F0708}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{10E0296C-E4C6-4E50-809F-2AB0CEE6F420}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{240D24A2-1BED-4B73-B511-725200B58D8E}"/>
-    <hyperlink ref="G6" r:id="rId7" xr:uid="{0FC933B6-FED5-4D5A-A25C-1548A2CAA08D}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{10E0296C-E4C6-4E50-809F-2AB0CEE6F420}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{0FC933B6-FED5-4D5A-A25C-1548A2CAA08D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/2022-2023 PCBs Work in Progress/deployment/DEP_REVC/DEP_REVC_BOM.xlsx
+++ b/2022-2023 PCBs Work in Progress/deployment/DEP_REVC/DEP_REVC_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\Documents\CU InSpace\avionics-hardware\2022-2023 PCBs Work in Progress\deployment\DEP_REVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD789427-0209-4348-AD90-117861BE145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ED3598-5391-4F23-8A39-7AB605188F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AA7BF814-9B2D-4B2F-8E84-2E25EAB2C408}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{AA7BF814-9B2D-4B2F-8E84-2E25EAB2C408}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>1k Resistor</t>
   </si>
   <si>
-    <t>330 Resistor</t>
-  </si>
-  <si>
     <t>AQY282EHA</t>
   </si>
   <si>
@@ -122,15 +119,6 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>RC0805JR-07330RL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RC0805JR-07330RL/728311</t>
-  </si>
-  <si>
-    <t>311-330ARCT-ND</t>
-  </si>
-  <si>
     <t>RNCP0805FTD1K00</t>
   </si>
   <si>
@@ -138,6 +126,18 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>Screw Teremianls</t>
+  </si>
+  <si>
+    <t>Connector for Screw Terminals</t>
+  </si>
+  <si>
+    <t>WM7732-ND</t>
+  </si>
+  <si>
+    <t>WM7770-ND</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -214,6 +214,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7468A4-4CFE-4494-B834-5C3CC0455950}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -568,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -576,10 +579,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>2.62</v>
@@ -592,7 +595,7 @@
         <v>5.24</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -612,11 +615,11 @@
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F12" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F9" si="0">D3*E3</f>
         <v>6.3</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -624,68 +627,68 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>0.16</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.16</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>1.5</v>
+        <v>0.99</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.98</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -693,32 +696,46 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="9">
+        <v>395000002</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.99</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.19</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.98</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>3.57</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="4"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="7"/>
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9">
+        <v>395021002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9500000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
@@ -729,9 +746,12 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F2:F9)</f>
+        <v>22.68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -739,46 +759,41 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1">
-        <f>SUM(F2:F10)</f>
-        <v>17.16</v>
-      </c>
+      <c r="F11" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="4"/>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E9)</f>
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <f>F10*(1+F11)</f>
+        <v>25.628399999999996</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <f>SUM(E2:E10)</f>
-        <v>12</v>
-      </c>
-      <c r="F13" s="2">
-        <f>F11*(1+F12)</f>
-        <v>19.390799999999999</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
@@ -817,28 +832,28 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F26" s="2"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="1"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F30" s="2"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
@@ -861,14 +876,14 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
+      <c r="D39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -876,28 +891,24 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="1"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E42" s="6"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
+      <c r="A44" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{D7AB6ECE-1BD2-4090-A739-4908E3B0E683}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{67C917CF-561F-43B3-B684-70E5164EB36C}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{10E0296C-E4C6-4E50-809F-2AB0CEE6F420}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{0FC933B6-FED5-4D5A-A25C-1548A2CAA08D}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{10E0296C-E4C6-4E50-809F-2AB0CEE6F420}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{0FC933B6-FED5-4D5A-A25C-1548A2CAA08D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
